--- a/buluerp_vue/ruoyi-admin/src/main/resources/excel/packaging_list.xlsx
+++ b/buluerp_vue/ruoyi-admin/src/main/resources/excel/packaging_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\source\buluerp_backend\buluerp_vue\ruoyi-admin\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579134E7-AA67-4FD4-A01B-C7B97F669931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02DA03C-74D9-4495-B795-F2E34D34C961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="4110" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分包表" sheetId="1" r:id="rId1"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本包配件:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{bagAccessory}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +219,10 @@
   </si>
   <si>
     <t>{detail.specificationName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本袋配件:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -254,11 +254,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -418,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -441,9 +436,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -793,7 +785,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -805,67 +797,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -890,23 +882,23 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -931,7 +923,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -943,108 +935,108 @@
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="9"/>
       <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/buluerp_vue/ruoyi-admin/src/main/resources/excel/packaging_list.xlsx
+++ b/buluerp_vue/ruoyi-admin/src/main/resources/excel/packaging_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\source\buluerp_backend\buluerp_vue\ruoyi-admin\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\src\buluerp_backend\buluerp_vue\ruoyi-admin\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02DA03C-74D9-4495-B795-F2E34D34C961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C94608A-B4E7-49A7-B615-966BA02394FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="4110" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分包表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>配件总数：</t>
   </si>
@@ -223,6 +223,18 @@
   </si>
   <si>
     <t>本袋配件:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{detail.materialId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -407,13 +419,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -466,6 +500,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,18 +963,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FF2E83-4033-471E-B376-E644C64C95D0}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="10" width="15.6328125" customWidth="1"/>
+    <col min="1" max="11" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
@@ -952,14 +995,15 @@
       <c r="H1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>1</v>
+      <c r="J1" s="20"/>
+      <c r="K1" s="19" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
@@ -973,9 +1017,10 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
@@ -1003,11 +1048,14 @@
       <c r="I3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="18" t="s">
         <v>40</v>
       </c>
+      <c r="K3" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -1038,13 +1086,17 @@
       <c r="J4" s="5" t="s">
         <v>49</v>
       </c>
+      <c r="K4" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
